--- a/biology/Botanique/Quillajaceae/Quillajaceae.xlsx
+++ b/biology/Botanique/Quillajaceae/Quillajaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Quillajacées regroupe des plantes dicotylédones ; elle comprend entre une et trois espèces du genre Quillaja.
 Ce sont des petits arbres à feuillage persistant des régions tempérées d'Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Quillaja, forme latinisée du nom de la plante appelée « quillai » ou « killai » en langue amérindienne Mapudungun ou Araucans (peuple du sud du Chili et de l'Argentine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Quillaja, forme latinisée du nom de la plante appelée « quillai » ou « killai » en langue amérindienne Mapudungun ou Araucans (peuple du sud du Chili et de l'Argentine).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existait pas, le genre était placé dans la famille des Rosaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existait pas, le genre était placé dans la famille des Rosaceae.
 Les classifications phylogénétiques placent cette famille dans l'ordre des Fabales.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 mai 2010)[3], GRIN            (28 mai 2010)[4] et DELTA Angio           (28 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 mai 2010), GRIN            (28 mai 2010) et DELTA Angio           (28 mai 2010) :
 genre Quillaja</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 mai 2010)[3] et GRIN            (28 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 mai 2010) et GRIN            (28 mai 2010) :
 Quillaja saponaria Molina</t>
         </is>
       </c>
